--- a/backend/tests/test_data/test.xlsx
+++ b/backend/tests/test_data/test.xlsx
@@ -478,19 +478,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.5</v>
+        <v>12.49</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4</v>
+        <v>11.89</v>
       </c>
       <c r="D2" t="n">
-        <v>-8.5</v>
+        <v>-6.49</v>
       </c>
       <c r="E2" t="n">
-        <v>8.399999999999999</v>
+        <v>8.719999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>8.399999999999999</v>
+        <v>9.589999999999996</v>
       </c>
     </row>
     <row r="3">
@@ -501,16 +501,16 @@
         <v>71.21000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>10.17000000000001</v>
+        <v>10.67000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.680000000000007</v>
+        <v>-5.910000000000011</v>
       </c>
       <c r="E3" t="n">
-        <v>7.489999999999995</v>
+        <v>7.769999999999996</v>
       </c>
       <c r="F3" t="n">
-        <v>7.489999999999995</v>
+        <v>8.569999999999993</v>
       </c>
     </row>
   </sheetData>
